--- a/data/trans_camb/P1416-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.40275596035933</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.952132005544598</v>
+        <v>1.9521320055446</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2372439559021444</v>
@@ -664,7 +664,7 @@
         <v>-0.7136659621171368</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.855707507630356</v>
+        <v>3.855707507630354</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.259671824513306</v>
+        <v>-5.593765888297257</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.787176246317946</v>
+        <v>-5.09357562620525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.614055871825733</v>
+        <v>-1.533795939238512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.498298605871896</v>
+        <v>-5.63386518088635</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.904663042461685</v>
+        <v>-4.692326749623535</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9349887779773537</v>
+        <v>0.7183617405274301</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.033715528314875</v>
+        <v>-4.194075789402342</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.842918841279084</v>
+        <v>-3.596424596211998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.079411571712442</v>
+        <v>0.9650883278242912</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.267710721063813</v>
+        <v>1.402666956969924</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.461817817172531</v>
+        <v>2.122441178995201</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.44486256661928</v>
+        <v>6.064165763653935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.549845946105211</v>
+        <v>4.504264364908325</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.543315580816758</v>
+        <v>4.869899421654893</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.771050615102526</v>
+        <v>9.826851647922069</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.772487478796555</v>
+        <v>1.643658192906446</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.072368370062086</v>
+        <v>2.048095018903084</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.911378047280905</v>
+        <v>6.861553831406892</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1889107347606208</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2628958293092462</v>
+        <v>0.2628958293092465</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02322821810251999</v>
@@ -769,7 +769,7 @@
         <v>-0.08375294436764406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4524902034370381</v>
+        <v>0.4524902034370379</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5556757120517304</v>
+        <v>-0.5811070851815771</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5172975326371015</v>
+        <v>-0.5450862953472103</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.192537668599742</v>
+        <v>-0.1945109064100165</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4441140610534537</v>
+        <v>-0.4256966002508178</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3743061736060628</v>
+        <v>-0.3939354064676761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05446618507989533</v>
+        <v>0.05200447852549893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3991635979951701</v>
+        <v>-0.4014370129051968</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3667940745734946</v>
+        <v>-0.3655332518130263</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09185909366851311</v>
+        <v>0.08059015368176545</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2407884615256482</v>
+        <v>0.2643686534749796</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4204886785206443</v>
+        <v>0.4236380670256157</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9566935078922494</v>
+        <v>1.038881743814078</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5743741811708142</v>
+        <v>0.5499590803108372</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5843811771455194</v>
+        <v>0.6103743408464989</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.263643588416407</v>
+        <v>1.293909646158395</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2751271821976942</v>
+        <v>0.2258659447083281</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3008869852844885</v>
+        <v>0.2934771067736812</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.964291695861934</v>
+        <v>0.9579542982360449</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.486528903502797</v>
+        <v>-5.614667326576141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.404776126605958</v>
+        <v>-5.531277630689624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.420161108816293</v>
+        <v>-1.507119067353338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.888606233648722</v>
+        <v>-8.057953822704965</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.751139267280074</v>
+        <v>-8.943792718764055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.365381426830751</v>
+        <v>-5.196753241094927</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.677834624152323</v>
+        <v>-6.021733843172678</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.91618122200483</v>
+        <v>-5.883221588604481</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.375976143435157</v>
+        <v>-2.553615554616346</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.374919801616957</v>
+        <v>1.778868779851291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.018749912165362</v>
+        <v>1.711446440786753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.396400922134772</v>
+        <v>6.591313230486616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.33484805445903</v>
+        <v>2.504196010202587</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.087357660029306</v>
+        <v>1.007048987511565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.69610557790427</v>
+        <v>3.593396847364358</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4483151146878096</v>
+        <v>0.2166197000596332</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.304398017876376</v>
+        <v>0.00696019616592947</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.567629833954067</v>
+        <v>3.345915655425818</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.58785058771126</v>
+        <v>-0.6159065251247925</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5729912714326684</v>
+        <v>-0.5798021471406399</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1834369238855749</v>
+        <v>-0.1740650672368605</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4747578298848062</v>
+        <v>-0.4917994161595713</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5247081938204208</v>
+        <v>-0.5417057740294738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3153056475755773</v>
+        <v>-0.3111099846435679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4592758342630509</v>
+        <v>-0.4732444006236934</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4775954135197993</v>
+        <v>-0.4795467269491858</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1856188037583801</v>
+        <v>-0.2017638890270261</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3259466906817166</v>
+        <v>0.3656586809288966</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3543062450760369</v>
+        <v>0.3180959688357252</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.062617701407428</v>
+        <v>1.201215187224633</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2139458497585673</v>
+        <v>0.232659172100999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1125594388426822</v>
+        <v>0.1091416685319794</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3495401019306471</v>
+        <v>0.3302788531798896</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04792374971318813</v>
+        <v>0.02907317376733539</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03299641598097903</v>
+        <v>0.00457273881757455</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3938028684725991</v>
+        <v>0.351806229774337</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.096159873866088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.604083241529966</v>
+        <v>4.604083241529968</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.374833126978106</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.743077563423753</v>
+        <v>-4.715382916265547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.18531004982883</v>
+        <v>-5.948247486545226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2901424468923843</v>
+        <v>1.158885888313375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.525291818320453</v>
+        <v>-3.875606358139038</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5473947740603552</v>
+        <v>-1.075978082301119</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.584053007909566</v>
+        <v>2.141125924517737</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.359391122228701</v>
+        <v>-3.386458132897622</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.612928978476732</v>
+        <v>-3.863579643504224</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.505534377036597</v>
+        <v>2.371438916545897</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.245155725258159</v>
+        <v>1.33937671027687</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.006973086445414892</v>
+        <v>-0.1624103531112176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.142496375918395</v>
+        <v>8.40567591426306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.159986844264237</v>
+        <v>5.776788915270253</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.93689765940543</v>
+        <v>11.2447689919507</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.44240219323025</v>
+        <v>12.84231181430752</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.75169283412618</v>
+        <v>1.795454324317604</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.484146999822139</v>
+        <v>1.51353857609096</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.671006452449518</v>
+        <v>8.66003379955038</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4129416795304603</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6140567489757668</v>
+        <v>0.614056748975767</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2279974003436144</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5399952934228347</v>
+        <v>-0.513441624385346</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6506281208743814</v>
+        <v>-0.6601628305701099</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.04364848066400094</v>
+        <v>0.1151180972806253</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.407146341895411</v>
+        <v>-0.4712431391762611</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1421563508750709</v>
+        <v>-0.2060435523484547</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.159433819163421</v>
+        <v>0.1884057020060618</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3985155053803324</v>
+        <v>-0.3960089789673814</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4293163306552756</v>
+        <v>-0.4472762923136888</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2996716661632566</v>
+        <v>0.2731247119573733</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2102390490022041</v>
+        <v>0.2161874916814163</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05658753783565908</v>
+        <v>-0.01004443040721581</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.423156069245872</v>
+        <v>1.503728267149546</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.930713825015177</v>
+        <v>1.655179726263299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.444863293747686</v>
+        <v>2.839819441874543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.821639814459177</v>
+        <v>3.591394088511263</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2959976121978657</v>
+        <v>0.3199680190105726</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2626077170814771</v>
+        <v>0.2713903029797632</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.565296218630823</v>
+        <v>1.522875915713667</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.448163490949146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.986765546680262</v>
+        <v>1.98676554668026</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.420774764273482</v>
@@ -1297,7 +1297,7 @@
         <v>-2.176136897021574</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.054749368711096</v>
+        <v>2.054749368711099</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.261602770830044</v>
@@ -1306,7 +1306,7 @@
         <v>-2.122042437391859</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.279149444444231</v>
+        <v>2.27914944444423</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.195179467168004</v>
+        <v>-3.373761173995419</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.178900082231451</v>
+        <v>-4.227515361714432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2594748509816213</v>
+        <v>-0.03250299390929668</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.622536249858172</v>
+        <v>-4.669653481253682</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.215029432393033</v>
+        <v>-5.050676447921621</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8794006292070974</v>
+        <v>-0.9636858395552101</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.064093474058148</v>
+        <v>-3.004235519172727</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.772265882163427</v>
+        <v>-3.727546386964338</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4862493372520614</v>
+        <v>0.4918914585927886</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4730409052823027</v>
+        <v>0.4037780418056492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8400672872074016</v>
+        <v>-0.7275653928385938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.093262460029655</v>
+        <v>4.478931346693179</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.880560234484249</v>
+        <v>1.450067305659651</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6394480247338539</v>
+        <v>0.5491940458347496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.192559214846945</v>
+        <v>5.429240220156255</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3630282699167894</v>
+        <v>0.3640783546252127</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.6358272827701847</v>
+        <v>-0.6156294416179712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.080476287624339</v>
+        <v>4.094657391734319</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4088701649357822</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3318116456531872</v>
+        <v>0.3318116456531869</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1413301573890287</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2164690546945351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2043941509782113</v>
+        <v>0.2043941509782115</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1687823110514654</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2838954027475991</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3049138123023214</v>
+        <v>0.3049138123023212</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4483487822000929</v>
+        <v>-0.4818118996658717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5923234702877078</v>
+        <v>-0.59336247697844</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04262304782157068</v>
+        <v>-0.01746613360305943</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3939444042588276</v>
+        <v>-0.3836157025644394</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4499974976099048</v>
+        <v>-0.4365846246107499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.07761183104143175</v>
+        <v>-0.07643028390338441</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3716859113556962</v>
+        <v>-0.3668405298751665</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4460362605252023</v>
+        <v>-0.4470785712694053</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05672018231157698</v>
+        <v>0.05053041082844569</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1011217491152382</v>
+        <v>0.1214705376775729</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1663723964973043</v>
+        <v>-0.1279533654662328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.791417180906155</v>
+        <v>0.8715106804865375</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2266719791393783</v>
+        <v>0.185315833209132</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07436753048274747</v>
+        <v>0.06988989145396494</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6221260477122433</v>
+        <v>0.6629142342678285</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05652529661413883</v>
+        <v>0.04661840004366954</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.08106408415332289</v>
+        <v>-0.09185409555586352</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6226013920488597</v>
+        <v>0.5973290693211541</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.9795436179310786</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.516394512609277</v>
+        <v>4.516394512609275</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-6.036676258275661</v>
@@ -1511,7 +1511,7 @@
         <v>-3.451987117035077</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.9489439618152684</v>
+        <v>0.9489439618152697</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.325991861327982</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.649477356792783</v>
+        <v>-4.79801408831229</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.078309868509585</v>
+        <v>-4.050311637179004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9339007006142206</v>
+        <v>0.9303290183613974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.219113674525888</v>
+        <v>-9.279269780660382</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.615559364114061</v>
+        <v>-6.557100777153313</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.457664700331215</v>
+        <v>-2.28326758757325</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.367957895166129</v>
+        <v>-6.778895119675068</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.022311636610754</v>
+        <v>-4.851370338449334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3731552040124295</v>
+        <v>0.005712899416458792</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.227926859281122</v>
+        <v>1.132813758996788</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.961719118629007</v>
+        <v>1.858152795245499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.46323926445092</v>
+        <v>8.290259506309097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.146668290576131</v>
+        <v>-3.087694641415858</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.08379756090633107</v>
+        <v>-0.1784155871071985</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.975290368116308</v>
+        <v>4.32478871264947</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.028550825161604</v>
+        <v>-2.33826679608589</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.5565424948640911</v>
+        <v>-0.5399228270025789</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.504478030814023</v>
+        <v>4.763931133615472</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1793674366818077</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8270117756282569</v>
+        <v>0.8270117756282567</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.5719333368002135</v>
@@ -1616,7 +1616,7 @@
         <v>-0.3270519116758415</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08990587921182461</v>
+        <v>0.08990587921182473</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5022934311719268</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6130826208137322</v>
+        <v>-0.6094506238579593</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5636610958469989</v>
+        <v>-0.5543817590861216</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.09013831828318927</v>
+        <v>0.1188200124166715</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7187912881307452</v>
+        <v>-0.7206681166176062</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.540129680612512</v>
+        <v>-0.5303697831400811</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1959164004977672</v>
+        <v>-0.1774907294130063</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6446439779100346</v>
+        <v>-0.6518784647882033</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4939261362582865</v>
+        <v>-0.4833890272216453</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03138974040896081</v>
+        <v>0.001692736658667238</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3941662405821563</v>
+        <v>0.3660468445596617</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6257461196216472</v>
+        <v>0.5166199104384104</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.374870770059957</v>
+        <v>2.256809802170388</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.347637198755328</v>
+        <v>-0.3453063142770886</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.00262693749196406</v>
+        <v>-0.01332974114394018</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4829539359829541</v>
+        <v>0.5193163754015778</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.283756272054197</v>
+        <v>-0.3067595745380586</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08005477543141222</v>
+        <v>-0.06595181011731419</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6406211614903622</v>
+        <v>0.667304967393667</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>2.501126749989702</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6.479398094386438</v>
+        <v>6.479398094386441</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-1.448549948675802</v>
@@ -1725,7 +1725,7 @@
         <v>-1.181786530164233</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.05869478319218829</v>
+        <v>0.05869478319218691</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.252941043408764</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.372512165811722</v>
+        <v>-5.049362670171402</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.362782274831788</v>
+        <v>-2.138637672771154</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.4250690315017857</v>
+        <v>-0.4119786515709424</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.58175087898345</v>
+        <v>-3.545378526310989</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.334362207833302</v>
+        <v>-3.221839157389191</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.332539301942855</v>
+        <v>-2.255058150487301</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.149319477644378</v>
+        <v>-3.170915021957853</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.531048854417699</v>
+        <v>-2.250510231121384</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.067468839342677</v>
+        <v>-1.16501501262728</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.21492274455608</v>
+        <v>3.957502937801221</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.783151039290654</v>
+        <v>7.249728059178337</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.70740220339384</v>
+        <v>15.49616552878548</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6878140678615698</v>
+        <v>0.6070486065672124</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.9862334433172831</v>
+        <v>0.9327185121236102</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.341810684878306</v>
+        <v>2.31578230460521</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.5350926146169627</v>
+        <v>0.8018969466368956</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.509637745156769</v>
+        <v>1.668311524528202</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.124248195770478</v>
+        <v>4.128678123328614</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3279981857155263</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.8497093637881969</v>
+        <v>0.8497093637881973</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1838524956071235</v>
@@ -1830,7 +1830,7 @@
         <v>-0.149994415480253</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00744964464557654</v>
+        <v>0.007449644645576364</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1600176982463667</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5478970247988832</v>
+        <v>-0.5195302480871604</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2629028461271137</v>
+        <v>-0.2431283321361753</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.06888595913274814</v>
+        <v>-0.08471364759091453</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3958328127819741</v>
+        <v>-0.3961039138484136</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3779932440111354</v>
+        <v>-0.3797584979123152</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2544437473190685</v>
+        <v>-0.2553770347468957</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3620324132068128</v>
+        <v>-0.3593844325940518</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2835343119399288</v>
+        <v>-0.2569353530923804</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1312964947165825</v>
+        <v>-0.132136876618509</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7747860167394918</v>
+        <v>0.7395633192496073</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.182451007351085</v>
+        <v>1.361736875125382</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.596765069957481</v>
+        <v>2.60132783424272</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1028105960142445</v>
+        <v>0.08509782567206556</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1426948812170035</v>
+        <v>0.1278392166541223</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3454894128423143</v>
+        <v>0.3298165518044714</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07805602434018959</v>
+        <v>0.1203337478975482</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.218242080199255</v>
+        <v>0.2405710397014095</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5591637997662421</v>
+        <v>0.5730737143479437</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-1.646073887483832</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.125111811149594</v>
+        <v>2.125111811149592</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.917058664747778</v>
@@ -1948,7 +1948,7 @@
         <v>-1.694371816559345</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.589519626489768</v>
+        <v>2.58951962648977</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.730525057236723</v>
+        <v>-2.811679176196269</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.869198325846336</v>
+        <v>-2.920905306979494</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.561494153714336</v>
+        <v>1.661080877924589</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.601504555838641</v>
+        <v>-3.667654846206864</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.04193802434957</v>
+        <v>-3.159135701586746</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.6920526087964805</v>
+        <v>0.6893240957850216</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.853101615243433</v>
+        <v>-2.845663101365145</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.588137683159187</v>
+        <v>-2.531840199487837</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.506637362988766</v>
+        <v>1.59914876004479</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.3582535458216664</v>
+        <v>-0.432510667846672</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.5916267789865134</v>
+        <v>-0.6722329856244291</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.541333665506199</v>
+        <v>4.453173077535661</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.8223970070188383</v>
+        <v>-0.8621249025655062</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.2972290662535789</v>
+        <v>-0.1895566409910026</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.499491675260938</v>
+        <v>3.498372211562778</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.105351196742951</v>
+        <v>-0.9354494602886393</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.7949466002084624</v>
+        <v>-0.8193372435616719</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.549234502443678</v>
+        <v>3.668564694090075</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.1716090816017422</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2215504959925311</v>
+        <v>0.221550495992531</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.2345850379180549</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2073354791608071</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3168721807736498</v>
+        <v>0.31687218077365</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3787846087057813</v>
+        <v>-0.3784461464762031</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3899547772794691</v>
+        <v>-0.3981613950328711</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2122140321897754</v>
+        <v>0.224259149998902</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3479991981720435</v>
+        <v>-0.3529727340835917</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2899269370795737</v>
+        <v>-0.2981866416290633</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06696111562888137</v>
+        <v>0.06813040666101128</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3266758638595476</v>
+        <v>-0.3267298302280567</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3005446575457321</v>
+        <v>-0.2934938522217125</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1805976310090399</v>
+        <v>0.1854693008238298</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.06013414757464083</v>
+        <v>-0.06676321771731428</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.0944765057025885</v>
+        <v>-0.1059101256241648</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.743710101203781</v>
+        <v>0.7193730106083491</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.08778773080661954</v>
+        <v>-0.09479070771995328</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03351033884968976</v>
+        <v>-0.02040786490016736</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3986804348541264</v>
+        <v>0.3906964477404439</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1417503763967934</v>
+        <v>-0.1205579665450083</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1044795089998627</v>
+        <v>-0.1043705703106536</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4665803760739383</v>
+        <v>0.4761506720771346</v>
       </c>
     </row>
     <row r="46">
